--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/16_Bilecik_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/16_Bilecik_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB83AA93-4DDF-4A56-B4FC-65B930A33D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDFF40F-F850-4C14-BF52-D86215CBEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{EB606BCD-0D12-42F5-878A-C60D31015661}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{89FBD326-AAC4-4FCA-96BB-7EBE61810CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -945,15 +945,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E8E23EEB-A419-4692-90F4-09FEC63316B8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A3954EFC-82AE-4E2B-8F59-5DB9FCC8E57E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{131C7490-1C50-4109-9365-BD75C68C6DF3}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{251DC87E-4BCE-4900-86E0-2E4EFE0531F6}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{9B958E32-7A5E-43B6-9C50-119BA3A0FD67}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{BC876248-5801-4418-AD12-CB7324F1A4E8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{E73D1D02-DF21-450C-96A6-41A1237C6EE7}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{3746A490-50E6-47B4-BD12-650EAE6740FA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{DB973B9B-EB92-4AAE-BE78-6BAEE9D17E28}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2D77BAA7-A21D-4A6A-8CDF-58E44019229C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AB2F8888-86E6-4E7A-9D2E-DF995951673C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A3D21DEE-6E03-4014-98D3-95DE3ABCEBC8}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{546D0756-3B99-487C-A67B-1BFC6E9C3143}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{B407DDE0-55A3-42BB-B97C-9D4F18B86D00}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{FB38CCAF-28F2-4CBE-AB2A-AE4763A41211}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{175CDFBD-DB2A-449B-A595-06EA7382C49E}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{C12211F6-DBAF-45D4-9D2F-693A0E8C5057}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{7A2A93CD-FFC9-4F22-9036-8E2CA69AFDA4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0880EA31-E1E1-4D84-B124-8E4486B80D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A129FC17-7F3B-49B4-8A37-6F0F45A17C17}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2532,17 +2532,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5C27A1C-6313-4879-ABD9-5FD20DCDE5AB}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6BBA54AF-D33A-4E83-A0D9-70D5D09DED42}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD463E9B-8B16-40A1-8316-FDD77A70940E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E4DBD5C-F2B2-41E5-9EBE-32265DE36FBE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C06B566-B05A-4116-B6CD-CE7D4A775207}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD6FA4DA-FED9-4AF7-91D9-762F9964EF9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{536F513A-C35B-4CBC-A6A1-5D3C95F25969}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{314812C3-889E-49B3-830C-C7DEF252F7A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E1CA4C9-8D1B-4648-AF55-6AD68A2D9FF0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4936E789-A3B0-4CB8-91E9-AA48D9E9926F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AC649FE-6C0D-4464-A028-CCD6D3A8A994}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D522F6CA-5C6F-434C-908C-BF768D95C6CB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{27D22004-9DF7-4D00-85A4-4CB9B8768061}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AA7FF51-AF9D-45EB-899A-0108EA0103A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92231059-BF87-4258-9B2C-B950385B7FCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE56025D-E0C9-4521-A759-4E2DB4D433D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0124B74A-C6F1-4EEC-A124-8B739D338EFE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59EA90AD-7557-471C-B50B-4AAE8A459710}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{555F78EF-17DD-4104-9C74-98F34FD9EC8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C68A139C-5AC9-41CB-85FC-F4E50A7B2DAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E26D9D6-918C-4A33-A941-DB259419C702}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E988D1E6-3F75-46B8-9721-35A7211895A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2555,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36E34F-7F15-47C0-B7D3-BEC7C74F44CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C60E8F-ECBF-4980-8C39-DA6B2A9BBE74}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3749,17 +3749,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEE6E07E-98D2-4C85-B6FE-2C455626D2E1}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{948C77B6-8C82-4FC3-A8A4-1D9738E9308D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{440E13F5-F117-4DD0-A1DA-EEC35CDA32B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B69CF8D-FD3F-43A6-9DCC-C553F484A478}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{565A32F4-FC6A-4D2F-BE2B-CF254DA07BB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18D89679-8F9D-4090-A23F-901B2C090958}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8347D1E7-A989-425E-B6BF-D9F5C0B36758}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDC70195-776D-4D5A-B438-9CD3226A4AF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D67A10BD-ACAE-4F5F-85F5-8992EF229A59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F17BC0C-6313-4490-BC10-1A46FE758D1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DB21096-955F-4BF2-B435-3B69F2F35892}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F1F5039-C848-4A74-9554-B95A2B83AA1F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{42C5C51B-C074-418B-9940-E61AD304DB76}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5654B228-BC56-4422-BC46-13B1C66704E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62596F55-813C-448F-9146-81A41DDF6DE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0AD3AF1-2FAC-45C4-8332-B81ED97B5EC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C9D9211-1AD0-409D-B9F4-ADA4F2743F44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B771B1B4-4972-4CBF-9141-AB33C62FC142}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75C2A22C-A466-467C-9223-85ACC3167470}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBDD1F10-93F8-4A29-8F27-E61AF1B07368}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B25D01C6-13D8-429C-B881-372302F6837D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA8E9F10-BE35-4D93-8906-02ACB80B076E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75FB03-C7DB-423F-BE78-CC4C55158FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16239F-A2A9-4153-A824-3BCD392417F9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4966,17 +4966,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F88C735-2B0F-49B1-8E41-FD187DE4A9FF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7139CC20-B26B-42E1-AE7D-3F9FBA80433F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{089306ED-8345-4B0C-8934-B641DB3CCDE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90915E3A-1BC1-43C5-BEC7-83084DD4C266}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B15CE842-7497-4181-839D-788137C9CA2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C4952D1-C31B-4B92-A016-4E34B9FAFAE1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C3211CD-BE14-4271-8D68-1CEEC9A30FBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C328B0E1-990F-483E-84A6-2FDE1996E1A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{33FB2799-8431-4A07-8CAB-EABAF1226CAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA9200B5-AC9D-4428-B113-114ECC12ECDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{271957F6-F5CA-4DD7-BAB8-CAC568B2C8B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BBAB5FF-6298-46F5-BE79-4620A189F164}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{50081667-412F-49F1-8FBB-44CFB8B7F812}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91143763-3695-4BB6-8F23-C7846B31A716}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8305805C-09AA-4AFD-B1F1-D95173A6821D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3B48667-2EEC-4C7E-B699-21ECDC802405}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{015DFC59-D91F-445F-A256-9337A50D3EF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DDBBFB1-EE69-4564-8EA6-F093214C6FB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA4C1E15-2BA7-46C5-B9BD-9137A0112F6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDE9510E-96E9-428E-AC5C-44D99F0A6042}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC989F15-6051-4628-86E1-6BEFB1A92C2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC8FC0D3-B321-4664-B289-F3168006476A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4989,7 +4989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAEAB7D-092A-43D7-ABC4-78DB6F2E95DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E4CAE-6669-4AA7-9DAE-CDAAB10D1701}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6183,18 +6183,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BE47765-03C7-4736-9B78-D6DC5D0ACA2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F37BBC9F-C0BB-4A0E-978D-5499EAAED132}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DBD1A633-BB92-4B04-A1E5-4442FF5135FC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{96E1F011-53E4-47D5-8F49-1B83FB40F144}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E3D41B9-80B2-467A-8867-77F1905081D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED10655E-9925-4CEA-B93E-F2BE89E25D7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BEAF07A-7D1C-4845-A333-025351DF2C43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24817D3F-341C-4346-8289-C773807AD990}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54709DA4-9E39-4FAE-A153-DC42E2D210AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E7B045A-60EE-42E3-9AAA-F3B91613605D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BF21178-0441-4BA7-A9C5-3D9D7A42DD8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B3F97C0-6869-47EA-970D-F31DC4CB1690}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56A770CD-75AA-4A59-8934-3C0D8E0BD899}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A706A69B-1E7E-479A-97B5-4CA00716312D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E3C3371E-8965-4F38-91D7-1B976FD44496}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{553B45D4-8D95-490D-82BE-B7626B9D6F38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78683677-CB9C-44FF-8D29-AC960867197D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E675611-9B39-440C-9468-09ED7EBC337B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C09CB4F4-C8C6-401F-9AFB-0E1C0C3BCC99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B86321FE-F86C-4475-A567-D2E83695184C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C111311E-04E3-4EA9-A453-5C1F5C849199}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2814080D-660A-450C-A45C-85FEE6DA6CFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFD12A3E-997F-4AE7-9ED4-3BEAD48890FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CC40D16-685D-4B6B-A849-367B0CA0CC86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6207,7 +6207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019AB8A1-53D0-478A-984C-A332EE737AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379C1902-DBFD-4118-BD18-31B0D1AEA926}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7416,17 +7416,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAE163BA-C053-49C2-A6E2-66C4ADE7D842}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E446318B-1637-45F2-AD16-2CDD72300B68}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CED6C08E-8F01-48C2-B95C-B1778864C05D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73102A6A-840A-4DCF-BA73-237F180FBB24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB605840-ABD6-4559-B1A1-E5D5F500F06B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44E25251-9040-4590-9E4A-BB86860B7110}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFCFAA3A-5152-488B-B1B6-8C6B49F77645}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C523EB60-A5F0-489A-9B04-6081A2E173CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BE5698C-6782-41B7-99A3-6F1342B1E601}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2131C51C-F412-4B17-803F-08681628411E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86D5E016-F871-4ADA-B04E-C61A9BF77465}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8A66C00-4CA2-4F91-B397-F66015506E4E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7DD85CF9-A616-4F77-AC37-3A3D8BF37D03}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B968FA2C-2726-4D3F-B053-40E1C7400220}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81C03E89-B985-4761-98A5-E0AA82DD32D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA742316-528E-4329-83D8-A3C2F57AA0E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6980EF0E-1A69-49FD-A9CA-2D0C8AAE1911}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FC917C3-8BF2-4764-A5B7-20A0FC482BC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38905F1B-83B0-47C3-8BD5-DF96EA96A18C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2157A633-E9D6-4771-8D9A-72A938F67C28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A81027B5-8EB1-4A41-AC0B-B5302874EC5E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BDAB52B-4540-4050-AE34-F22A693D33BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7439,7 +7439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA590DE-514F-4428-ABA7-F1E39C3B365E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A15539-0515-4C47-8BCC-165DC4AC822C}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8649,17 +8649,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E689F60-5F24-4960-AB86-C24195FF7FBE}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C15C689E-90BD-4C1B-9664-BF082925A036}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D3F853D-16F0-488C-B5B0-DE611A6CA0CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D967657-665E-40D0-BCF4-2DC2B0C15B2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BC98B20-938A-4C63-8C7E-5D5E563EC855}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71D207B4-9F45-4181-9939-6FA5939B0BD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F8E7635-75F6-47BC-AA54-00E6A3C12B53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBBF3994-EC38-4EC6-A181-E8BA52669CD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{907A701C-D70B-482A-8525-513A12341B42}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26D0B83D-9548-49BB-AD93-4B51F07EC489}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51F7D31F-527C-4414-8156-81DDF6993715}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EAE0D82-430B-498F-806E-E49A8B1F09F7}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2F76610D-9835-4691-B457-81735130900A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7FA9810D-97E2-4221-A19E-BA14597CBD03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A2E6041-1CF2-4E3B-9311-2DDDD8C55ECF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAA7BAD1-D344-4194-A0CA-31875C049616}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17EDECBE-851F-4DBC-AAFD-C7B34CD4CB46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF5086CA-2BB6-465B-A967-D76919496686}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59806A7A-315E-4EDF-A533-901723CF4251}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3BD7955-5F4F-4916-AA89-2749B50EFF9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3BD0B93-5C4D-4572-9965-C5A353FA7A58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75CF91D2-87B0-40C6-8FD4-E78FB65A6CD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8672,7 +8672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032A1A5-93C5-4CEB-B5C0-4DDEA980214B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239B5A7B-D1F8-405A-A616-B420F2754749}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9882,17 +9882,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF970BB2-CCDA-4BD6-8964-87222277A9D5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3817558F-86EC-4A33-BA7D-F3BBDC80D5CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5BC6FF5D-1490-4E99-9C14-5D9D52616190}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C52F9A1-6FAC-4C4C-895A-BE10D3B2C9F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B80ED4E-48D1-4D4F-B27B-2D8995AA8EC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC6660CF-5DB6-4E30-B740-BBB53CFA21DA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8C7F271-AD6A-425D-8E60-A4B96203D634}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{648EBC8E-BB23-44D0-A853-A0723352679E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B665873D-84EA-40AB-9B28-F488053F6C08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{222C8109-34FA-4120-A0A4-DA5A58E2E519}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF0DCB2D-1598-4FF1-8FFD-681D9C86FAE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A560A21-8DD1-44B9-A31F-BCB9098765EE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F386A868-1072-4822-B045-AFBBC886A2FD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{115D8D21-A845-4BBD-8763-737311AD5F23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F008DCD9-FC22-48D7-B272-C3077BECB17D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD81804E-A156-447E-8821-A169F0BD0F12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D8AF131-3AFB-4060-B5CA-29900F33A1BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{566F9C40-B06F-4371-8F6F-D1E839D01417}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EE8F1CB-4E6E-4923-9EDC-FC166A947A0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4103B622-44B5-44F0-9AB1-A62E9F604E83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13979FA7-5AE1-4855-955A-8663B59627DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0495121-AAE3-474D-99FD-2D36666DAC64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9905,7 +9905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70971CA-7908-49B2-AA6B-687025C0AC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08A75ED-D000-4296-9434-41CE1282652F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11111,17 +11111,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{801B191F-7A21-4008-AD9C-04EE78A36E09}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BAFF5884-36C7-4553-A7FC-9BA3A5F0CB72}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{732D1480-DB45-4252-AF28-45390810C4F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AA7047E-C48E-4B36-B435-F2C8E86ECE4E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D341663E-5AC8-4E3A-8A75-D683E973E96B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F271450-6A21-465F-A17F-A8345072AFFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6110560A-125B-4657-B507-2A53EEA48C02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77091110-97A1-440D-9F94-0F90CD2FF803}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16F1BBAA-367B-4BAB-A93C-06BDA9A84148}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C0B760C-9041-4532-AFF5-12B4A461CDC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F138F13-2B1A-4CDC-9A62-6BE939C781EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DF16E03-F9CA-4570-84DE-C1DA6AD9174E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{82AB3D2D-9451-4B00-A1EE-ADA34015F543}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CFD5E5AC-0B37-4582-95AC-26274DF36848}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45429860-E6C7-409C-A263-C77FB8F8A107}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12EC21F9-73B6-40E1-96C8-6666C78CDCBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70B4A28B-6704-498C-8E01-130E588B8554}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FADFFD4-0EEA-458D-BE5A-82DA592A48FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{500C43E4-9736-472E-AA20-0E703E42D44F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6530525A-047C-4D75-B445-B970BE4F714A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBA8131D-C48F-4D79-BC7B-047AAF5770BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{943C7324-55E4-46C3-857D-11C4E2AAC0CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11134,7 +11134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E573F2E7-2F1E-465A-9D79-220DDE9D68C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0809AE-C6BC-4F2E-B158-AAC2BC90BB7A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12332,17 +12332,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0353187F-9B03-4907-8FB8-C2C2F0B4A517}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{ED0A4686-43BD-49AC-9837-C8449F797F05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32E84816-62A4-4DE1-B263-0262CF0EAD66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31AA3B61-10DD-41E3-809A-D7FB60159B3D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4068CEAD-74CF-4441-ABDD-94D1FB47A3B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6115BE1B-7298-49EA-B373-5DBCC951BE93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{994DCFBD-228C-427F-80FF-565806830F09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA76E00F-DC8F-447B-8431-F04DECFD767D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B326CD5E-C3B9-4C01-BFB2-2BFC46D1C41C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5514162-4D18-4E2D-AC8C-59F11C77B4F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6370817-888F-41C1-A702-FF40DBCCA718}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7DD7C28-4127-4A5B-B948-C6EB5270328C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{86A73F42-FD33-41C6-A697-A3EE85A3B3FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E9DA51B-29F3-4D75-881E-AF6F6B8C97BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C544338-904E-4A4E-B4CC-B6FE580B9099}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{907F2747-8B51-4B85-BC44-DC1AA3680EB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{189F9D11-73D8-4A4A-B10B-DDC453CD72E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{815B9857-45C8-45AF-BAB8-A4364020251D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{455BCFF3-11BD-4BFF-A667-8525493C367E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A281E114-2DB1-417F-B4BA-780321AFFB88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DB8FFDF-51E8-4FA1-BD7A-54EDA4ADF1F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53EAA8A5-C20F-4C37-B361-FB874339E74C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12355,7 +12355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8503A63C-E88A-4C12-8483-3FACC285B85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93F3EF0-506C-4A31-BBE2-1B2EC3DE5758}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13553,17 +13553,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C1E12C4-05C1-4385-AF90-6407797DFA27}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B500A8F4-1C86-4B97-BF80-CFBE17CF057B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF9ABCC3-7103-44F7-B9BE-F4BE774B9646}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C1B9CC8-E20D-4B3F-9B12-91EC9588B8DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E74FFBF6-7AF2-4634-AFFB-FB6C620BCB25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63AEBF19-57D4-4932-9545-929409C0112E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1140ABA-BCC6-4626-BBEC-738E8383CF23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B55D13AE-7D87-4656-ADBA-74B8AD04FA92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2B202DE-F566-47E3-B292-47BB8A092BCA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2CB88E2-D3E1-4363-992C-513958B77AB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCD98F45-5B09-46DF-A634-E17449271B4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97C6F759-B019-48B9-ADE7-A5838F61AF90}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{31F9DFC2-041F-470D-A3B2-828D2799C4FE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8A899AE8-7785-48E8-A390-637A55B216C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66D74886-8C9B-4A38-AF7E-79E5FEF08F70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C13F1AD5-2722-42E5-96A8-693BA1248E7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E27D695B-496A-449A-BAA5-E105480130A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F191301E-6C23-4932-98F5-7167281F34E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B34922DB-F927-43AD-9A51-BD0E72952555}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29AE07DA-CC30-4D1F-951D-CBCC8C048772}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F5F5C82-9EA0-4D12-B42C-4890822BE67C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0DAA9E2-63DC-4523-A382-4A398541E5C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13576,7 +13576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736294E-BBB3-4C1F-BBB2-30D22D35C20F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE31E23B-45EB-47B2-997F-1180B8F8301F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14774,17 +14774,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7671BE4D-A767-4908-9CDF-DDED266C668B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{787139DE-DAE4-4611-BD1C-0F02D7CA46B7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5AF37BC4-1185-4115-8E6E-5437697DE189}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DF3F657-1D46-4944-AD05-BD343517C546}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F77FFD2-C848-40C3-9F81-401B53405F91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{614093BF-E490-4802-B94C-12EA3C948C23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D89F4B46-0BB0-405F-94F8-F1CB3061E788}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A80767D-E633-406E-91AD-21AD6AA4757C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{791F427A-C613-41E4-A8F1-4AD4C230EB84}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{443C2E5C-55F8-49AA-8DF1-BEDADFA238DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65F8785B-BE9E-49E2-B71E-E21DA4F10821}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B02D984-96A8-404C-BE45-9A76B5CA30E2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{24AFA0C2-51B2-4748-83E8-6AA4F0ECD68A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31A19C8F-59A2-45E2-8A6A-77F7E05235A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFA85D06-1514-4CB8-9FE2-3050FECAE2D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A9D1238-194E-4051-A104-704177C2AC5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DC969B9-7C51-4C88-86E5-89A15B6394BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFCF0CC6-073A-4D1A-B0B2-6D0E78B8C6A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B78C85F5-DCD8-4D64-B7D2-460B01DEE89A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C58579D2-0F13-4632-8B67-71E8F7E3699E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{915175F8-1E2E-415C-8551-5DC868880FF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10A45B65-906C-4BB1-BBBA-B4A53859F532}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14797,7 +14797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEC068D-D511-44C8-B298-94E29526364B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1419C45A-DE41-4CC5-BDCF-150922706D97}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15995,17 +15995,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B917166-9F8A-4D7D-8609-63E4D4E2FC21}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B17D519F-94A8-45DF-BD35-75CBE7F83AD4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF20E2F6-13A9-4ABF-8F40-C4E257234545}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{605240AA-B125-468E-B9B5-33F8E99CE12E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAA695B8-E880-4F77-ADAC-3D95AE0DA593}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F6F8E27-0C4B-49C0-BCD8-9DBDFF7CDB5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0007FC7-4913-4BA0-AAD4-7872915790EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2948B6F-14AF-4534-993C-BEE8226E00C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E093C774-82F6-4DDF-8D6D-E87792739F13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3B6CF04-0E7E-415D-826E-5792618F2E32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5901963E-EF68-494B-B6FA-38A8A503A406}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A96822B5-65E0-4399-9DFA-C81555AF3840}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{242AB121-D412-4681-AB7E-C3879665632C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B2D2E78-322A-47ED-8C21-14D3420BEBA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D91D110-D41D-49A3-ACDD-AD86C79BF253}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32FED6AA-53AC-4342-8A09-D43DB2A2DA1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9006C5D0-8CD3-4BE6-8C38-DAA66309891C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95B9AEAB-DC49-4AEB-A8C9-6BDFB3A86F76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31E4197B-5693-40A1-8525-8CC96D90237F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AABD72A-ADA5-4835-B40A-5135C6291715}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{264F4EBA-5E48-4B2D-BE9D-39267E5B733B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F772EBA8-1013-4692-B6C7-2061265603D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
